--- a/data/trans_bre/P36B02_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B02_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.42418193457973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.495118985816279</v>
+        <v>-1.495118985816291</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.0003511097539987487</v>
@@ -649,7 +649,7 @@
         <v>0.05076964147715569</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.0158438462753776</v>
+        <v>-0.01584384627537771</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.772110872209831</v>
+        <v>-3.792853406525751</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.07089051741641</v>
+        <v>1.149595306053331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.356114383211642</v>
+        <v>-0.371133333829905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.713616305834648</v>
+        <v>-5.031054414559962</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0387798616697592</v>
+        <v>-0.03910266443190735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01240648567079352</v>
+        <v>0.0138182429402341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01563113968791618</v>
+        <v>-0.004121748266125759</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04934944336708085</v>
+        <v>-0.05239017445925815</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.694876486089263</v>
+        <v>3.652920012459613</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.10115789191018</v>
+        <v>13.0201889019002</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.689399523804276</v>
+        <v>9.779639554682005</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.624254468522015</v>
+        <v>2.560045113336776</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03869820117444912</v>
+        <v>0.03917864685323257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1720070335448441</v>
+        <v>0.1700622538316674</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1145361218199475</v>
+        <v>0.1165815263736176</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.02818950453725459</v>
+        <v>0.02788642059527011</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.805364053329231</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.721159754247564</v>
+        <v>7.721159754247553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02033691679318552</v>
@@ -749,7 +749,7 @@
         <v>0.05638916587946548</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1076569799557431</v>
+        <v>0.1076569799557429</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.266247928609354</v>
+        <v>-2.464259673124689</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.404591838632171</v>
+        <v>-1.510034498107204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.756300701520925</v>
+        <v>0.08499809403829495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.902594645545488</v>
+        <v>1.962416621490534</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02527345781805689</v>
+        <v>-0.02721458604546791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01551123391266625</v>
+        <v>-0.01699936194767122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008910087461768645</v>
+        <v>0.0007665158606579914</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02718219356926855</v>
+        <v>0.02721992717375898</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.003094605596069</v>
+        <v>5.823334696456968</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.429687425803671</v>
+        <v>6.91150894129268</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.337746966298544</v>
+        <v>8.943605508663065</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.24719118690678</v>
+        <v>13.27554917942327</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07039546011954456</v>
+        <v>0.06798798984170579</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07503835750053303</v>
+        <v>0.08055082241886434</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1138597363807737</v>
+        <v>0.1082252068314577</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1949805494445442</v>
+        <v>0.1984469459198957</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.784876346421793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.474287428915246</v>
+        <v>-3.474287428915257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02200373473049868</v>
@@ -849,7 +849,7 @@
         <v>0.0184959005127582</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03595173675056811</v>
+        <v>-0.03595173675056823</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.518555792319141</v>
+        <v>-1.223918891776458</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.991983111807933</v>
+        <v>-4.248944858859999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.583324944117665</v>
+        <v>-0.5560991354759779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.65047241794149</v>
+        <v>-6.589341947217848</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01535048729879297</v>
+        <v>-0.0126153225609182</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0411593990872536</v>
+        <v>-0.0434543302301619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.005935362641137035</v>
+        <v>-0.00551092072054691</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06808110004045254</v>
+        <v>-0.06790155625936629</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.614703955444012</v>
+        <v>5.541814353867864</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.587683278813105</v>
+        <v>2.288164284242828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.238043565643801</v>
+        <v>4.327887424570433</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.637773843778892</v>
+        <v>-0.4111734843970896</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06054758964840932</v>
+        <v>0.06022515938081351</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02729402691402976</v>
+        <v>0.02428286651192947</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04531570238238364</v>
+        <v>0.04599978161331526</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.006644397154966755</v>
+        <v>-0.004748004103177897</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1666272586285024</v>
+        <v>-0.3121141223396182</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.678725463138596</v>
+        <v>-2.506883614941195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.08315124200901462</v>
+        <v>0.06023432944343708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.112208954115777</v>
+        <v>-3.17919637486782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.001632554196440956</v>
+        <v>-0.002997048830990769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02720459036204628</v>
+        <v>-0.02548255807339547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.001078627772495325</v>
+        <v>0.0007210414696649187</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03316739510017369</v>
+        <v>-0.03361511690803803</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.247306857243927</v>
+        <v>6.289017047403524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.647865470255835</v>
+        <v>2.570306555555228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.376441228745547</v>
+        <v>8.6057912570491</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.849004091553798</v>
+        <v>6.609151589799049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06842606199714486</v>
+        <v>0.06924362307960756</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02766050257466456</v>
+        <v>0.02696876168580631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09686851620733883</v>
+        <v>0.1007010353924885</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07966561195950475</v>
+        <v>0.07619275976314926</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.4612858162583944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3892763436672553</v>
+        <v>0.3892763436672331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05060167991089328</v>
@@ -1049,7 +1049,7 @@
         <v>0.004692339630255271</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.003988138897311108</v>
+        <v>0.00398813889731088</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04771715203268991</v>
+        <v>-0.3463698058683283</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.613971159359982</v>
+        <v>-7.329399749489397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.860297402791704</v>
+        <v>-1.657531465438062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.821859134306468</v>
+        <v>-1.749911627398288</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0009152856246892237</v>
+        <v>-0.00295829330906003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.07779551256655853</v>
+        <v>-0.07546287130189602</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01856938364075276</v>
+        <v>-0.01666710921221688</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01848480304770857</v>
+        <v>-0.01772280302088326</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.518161022851169</v>
+        <v>9.743304905308323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.660107736640306</v>
+        <v>1.612929519956769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.343683515416666</v>
+        <v>3.599798704032543</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.721007866106719</v>
+        <v>2.769190154158384</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1093857611174916</v>
+        <v>0.1114856606181349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01743690857460451</v>
+        <v>0.01656232419339894</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03467115399409505</v>
+        <v>0.03781324757229717</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.02823415786568288</v>
+        <v>0.02868603613159053</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.251673467872221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.113512078979909</v>
+        <v>5.113512078979876</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002582031285611055</v>
@@ -1149,7 +1149,7 @@
         <v>0.07251437315122514</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.05858039219747223</v>
+        <v>0.05858039219747184</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.43794366519283</v>
+        <v>-3.352096940620752</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.180830499043779</v>
+        <v>-2.131280886542424</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3731749940921354</v>
+        <v>0.4589246744528767</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.120207401752562</v>
+        <v>1.021818910814931</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03594986269927544</v>
+        <v>-0.0350063398325612</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02225088480544365</v>
+        <v>-0.02224625917313889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00478273183337783</v>
+        <v>0.005958917469519781</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.01286005145776002</v>
+        <v>0.0116233872456875</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.498324832881418</v>
+        <v>4.195019975838821</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.97938924757905</v>
+        <v>5.267023098980608</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.29349934893618</v>
+        <v>11.4593800701973</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.25717091483227</v>
+        <v>9.549121926561993</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0493334864115053</v>
+        <v>0.04532321659875353</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05431870137897381</v>
+        <v>0.0577211626912374</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1370992780942005</v>
+        <v>0.1397267828787648</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1221982550610106</v>
+        <v>0.1156327200291857</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.007941316465978</v>
+        <v>-5.448891727824801</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.774940467962674</v>
+        <v>-2.837277620680568</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.915394801625272</v>
+        <v>-3.293330541318346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.476758710869751</v>
+        <v>-4.709926622541428</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.05258163532518522</v>
+        <v>-0.05674417673100049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02923388580127452</v>
+        <v>-0.03004204228081122</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03132233228086585</v>
+        <v>-0.03556533683392881</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.04867783036631103</v>
+        <v>-0.05106620801814138</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2781387986407016</v>
+        <v>0.5340862250998992</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.602977919892119</v>
+        <v>2.658734660899433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.961159854780318</v>
+        <v>2.856077336070197</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.871855563289676</v>
+        <v>1.965569624362814</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.002985958004632</v>
+        <v>0.005636581286620953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02813521849348333</v>
+        <v>0.02868793888894932</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03264116607945461</v>
+        <v>0.03169483903354688</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.02108368157694821</v>
+        <v>0.02251286067703646</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.2682391226759173</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.246645724035679</v>
+        <v>3.246645724035691</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.037029405510985</v>
@@ -1349,7 +1349,7 @@
         <v>0.002765519002931703</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.03889724793529452</v>
+        <v>0.03889724793529464</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9834133417691121</v>
+        <v>0.9609286114712909</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.020224698752827</v>
+        <v>-2.018536143153042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.310233221255787</v>
+        <v>-1.49209236319227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.3487031565409878</v>
+        <v>0.04731112561221839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01039077770247086</v>
+        <v>0.01036910511619956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0207092933508904</v>
+        <v>-0.02060368976881331</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01339516119175128</v>
+        <v>-0.0152819207901103</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.004092551904325148</v>
+        <v>-6.3850399273413e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.877714924540157</v>
+        <v>5.969439024349375</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.709566990657149</v>
+        <v>1.873502770628631</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.064382572732508</v>
+        <v>2.132494909316097</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.896682512599138</v>
+        <v>7.079431357903708</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06423015495080257</v>
+        <v>0.06616625587454029</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01794474595989972</v>
+        <v>0.01954360694943847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0216526325528748</v>
+        <v>0.02234515751469538</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08469403505246821</v>
+        <v>0.0857306246155715</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>2.302996613262909</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.793283746079388</v>
+        <v>1.793283746079399</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01538686328443688</v>
@@ -1449,7 +1449,7 @@
         <v>0.02510012014074686</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.02057207611430165</v>
+        <v>0.02057207611430178</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3384333181361648</v>
+        <v>0.1477182560094944</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3485627319699806</v>
+        <v>-0.3139058861785943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9388634714572957</v>
+        <v>0.9641236314466941</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.338275553240613</v>
+        <v>0.3661106948455792</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.003624409155525689</v>
+        <v>0.001627622275431943</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.003634539238661103</v>
+        <v>-0.003340787468238992</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01013084407355338</v>
+        <v>0.0104290022039794</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.003842271803370346</v>
+        <v>0.004030287385162734</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.785043233127321</v>
+        <v>2.674279269159337</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.013816038931874</v>
+        <v>2.127912311285758</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.466557451436246</v>
+        <v>3.500636703804009</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.544074539999537</v>
+        <v>3.514980937823617</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03023074026778715</v>
+        <v>0.02915325585559325</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02176946878257855</v>
+        <v>0.0230757546864684</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03812064916120269</v>
+        <v>0.03848496633025054</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0411695565876873</v>
+        <v>0.04080486740365048</v>
       </c>
     </row>
     <row r="31">
